--- a/TrueTestRun/App_Data/Requests/EPE-EE-25-025/request.xlsx
+++ b/TrueTestRun/App_Data/Requests/EPE-EE-25-025/request.xlsx
@@ -268,7 +268,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>EPE-EE Ver2</t>
   </si>
@@ -318,9 +318,6 @@
 発行日</t>
   </si>
   <si>
-    <t>2025-08-22</t>
-  </si>
-  <si>
     <t xml:space="preserve">Model SX
 生産モデル</t>
   </si>
@@ -339,21 +336,12 @@
 部品コード</t>
   </si>
   <si>
-    <t>M9292020</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tên linh kiện
 部品名</t>
   </si>
   <si>
-    <t>KO009</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nhà cung cấp
 業者名</t>
-  </si>
-  <si>
-    <t>Brother</t>
   </si>
   <si>
     <t xml:space="preserve">Thay đổi thiết kế: DCI WP202502840 thay đổi nhà máy sản xuất Transformer
@@ -369,9 +357,6 @@
   <si>
     <t xml:space="preserve">Số lượng
 数量</t>
-  </si>
-  <si>
-    <t>7</t>
   </si>
   <si>
     <t xml:space="preserve">Thay đổi công đoạn: thay đổi địa điểm sản xuất
@@ -559,9 +544,6 @@
   </si>
   <si>
     <t>　PC</t>
-  </si>
-  <si>
-    <t>v</t>
   </si>
   <si>
     <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -15789,16 +15771,14 @@
       <c r="B8" s="259"/>
       <c r="C8" s="259"/>
       <c r="D8" s="259"/>
-      <c r="E8" s="261" t="s">
-        <v>6</v>
-      </c>
+      <c r="E8" s="261"/>
       <c r="F8" s="262"/>
       <c r="G8" s="262"/>
       <c r="H8" s="262"/>
       <c r="I8" s="262"/>
       <c r="J8" s="262"/>
       <c r="K8" s="259" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L8" s="259"/>
       <c r="M8" s="259"/>
@@ -15809,7 +15789,7 @@
       <c r="R8" s="262"/>
       <c r="S8" s="262"/>
       <c r="T8" s="264" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U8" s="264"/>
       <c r="V8" s="264"/>
@@ -15822,14 +15802,14 @@
       <c r="AC8" s="266"/>
       <c r="AD8" s="266"/>
       <c r="AE8" s="268" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF8" s="268"/>
       <c r="AG8" s="270"/>
       <c r="AH8" s="270"/>
       <c r="AI8" s="271"/>
       <c r="AM8" s="38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" ht="12" customHeight="1" s="34" customFormat="1">
@@ -15872,30 +15852,26 @@
     </row>
     <row r="10" ht="24.6" customHeight="1" s="34" customFormat="1">
       <c r="A10" s="274" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="275"/>
       <c r="C10" s="275"/>
       <c r="D10" s="275"/>
       <c r="E10" s="275"/>
-      <c r="F10" s="277" t="s">
-        <v>12</v>
-      </c>
+      <c r="F10" s="277"/>
       <c r="G10" s="223"/>
       <c r="H10" s="223"/>
       <c r="I10" s="223"/>
       <c r="J10" s="223"/>
       <c r="K10" s="278"/>
       <c r="L10" s="280" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M10" s="280"/>
       <c r="N10" s="280"/>
       <c r="O10" s="280"/>
       <c r="P10" s="280"/>
-      <c r="Q10" s="281" t="s">
-        <v>14</v>
-      </c>
+      <c r="Q10" s="281"/>
       <c r="R10" s="281"/>
       <c r="S10" s="281"/>
       <c r="T10" s="281"/>
@@ -15906,14 +15882,12 @@
       <c r="Y10" s="281"/>
       <c r="Z10" s="281"/>
       <c r="AA10" s="282" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB10" s="283"/>
       <c r="AC10" s="283"/>
       <c r="AD10" s="283"/>
-      <c r="AE10" s="253" t="s">
-        <v>16</v>
-      </c>
+      <c r="AE10" s="253"/>
       <c r="AF10" s="253"/>
       <c r="AG10" s="253"/>
       <c r="AH10" s="253"/>
@@ -15957,12 +15931,12 @@
       <c r="AH11" s="253"/>
       <c r="AI11" s="254"/>
       <c r="AM11" s="38" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1" s="34" customFormat="1">
       <c r="A12" s="207" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B12" s="208"/>
       <c r="C12" s="208"/>
@@ -15975,7 +15949,7 @@
       <c r="J12" s="116"/>
       <c r="K12" s="117"/>
       <c r="L12" s="213" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M12" s="213"/>
       <c r="N12" s="213"/>
@@ -15989,15 +15963,13 @@
       <c r="V12" s="116"/>
       <c r="W12" s="117"/>
       <c r="X12" s="216" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Y12" s="217"/>
       <c r="Z12" s="217"/>
       <c r="AA12" s="217"/>
       <c r="AB12" s="218"/>
-      <c r="AC12" s="222" t="s">
-        <v>21</v>
-      </c>
+      <c r="AC12" s="222"/>
       <c r="AD12" s="223"/>
       <c r="AE12" s="223"/>
       <c r="AF12" s="223"/>
@@ -16005,7 +15977,7 @@
       <c r="AH12" s="223"/>
       <c r="AI12" s="224"/>
       <c r="AM12" s="38" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1" s="34" customFormat="1">
@@ -16045,12 +16017,12 @@
       <c r="AH13" s="226"/>
       <c r="AI13" s="227"/>
       <c r="AM13" s="38" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1" s="34" customFormat="1">
       <c r="A14" s="228" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B14" s="229"/>
       <c r="C14" s="229"/>
@@ -16060,7 +16032,7 @@
       <c r="G14" s="229"/>
       <c r="H14" s="229"/>
       <c r="I14" s="234" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J14" s="235"/>
       <c r="K14" s="235"/>
@@ -16075,7 +16047,7 @@
       <c r="T14" s="235"/>
       <c r="U14" s="236"/>
       <c r="V14" s="240" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="W14" s="240"/>
       <c r="X14" s="240"/>
@@ -16239,7 +16211,7 @@
       <c r="AH18" s="202"/>
       <c r="AI18" s="203"/>
       <c r="AM18" s="39" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AN18" s="39"/>
       <c r="AO18" s="39"/>
@@ -16284,7 +16256,7 @@
       <c r="AH19" s="205"/>
       <c r="AI19" s="206"/>
       <c r="AM19" s="39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AN19" s="39"/>
       <c r="AO19" s="39"/>
@@ -16294,7 +16266,7 @@
     </row>
     <row r="20" ht="14.25" customHeight="1" s="34" customFormat="1">
       <c r="A20" s="171" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B20" s="172"/>
       <c r="C20" s="172"/>
@@ -16307,7 +16279,7 @@
       <c r="J20" s="175"/>
       <c r="K20" s="176"/>
       <c r="L20" s="179" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M20" s="172"/>
       <c r="N20" s="172"/>
@@ -16320,7 +16292,7 @@
       <c r="U20" s="175"/>
       <c r="V20" s="181"/>
       <c r="W20" s="183" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="X20" s="175"/>
       <c r="Y20" s="175"/>
@@ -16335,7 +16307,7 @@
       <c r="AH20" s="185"/>
       <c r="AI20" s="186"/>
       <c r="AM20" s="39" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AN20" s="39"/>
       <c r="AO20" s="39"/>
@@ -16380,7 +16352,7 @@
       <c r="AH21" s="187"/>
       <c r="AI21" s="188"/>
       <c r="AM21" s="39" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="AN21" s="39"/>
       <c r="AO21" s="39"/>
@@ -16390,27 +16362,27 @@
     </row>
     <row r="22" ht="12.75" customHeight="1" s="34" customFormat="1">
       <c r="A22" s="189" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B22" s="161"/>
       <c r="C22" s="161"/>
       <c r="D22" s="190"/>
       <c r="E22" s="40"/>
       <c r="F22" s="197" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G22" s="161"/>
       <c r="H22" s="161"/>
       <c r="I22" s="161"/>
       <c r="J22" s="161"/>
       <c r="K22" s="197" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L22" s="161"/>
       <c r="M22" s="161"/>
       <c r="N22" s="161"/>
       <c r="O22" s="197" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="P22" s="161"/>
       <c r="Q22" s="161"/>
@@ -16418,7 +16390,7 @@
       <c r="S22" s="161"/>
       <c r="T22" s="190"/>
       <c r="U22" s="197" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="V22" s="161"/>
       <c r="W22" s="161"/>
@@ -16426,7 +16398,7 @@
       <c r="Y22" s="161"/>
       <c r="Z22" s="190"/>
       <c r="AA22" s="161" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB22" s="161"/>
       <c r="AC22" s="161"/>
@@ -16437,7 +16409,7 @@
       <c r="AH22" s="161"/>
       <c r="AI22" s="162"/>
       <c r="AM22" s="39" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AN22" s="39"/>
       <c r="AO22" s="39"/>
@@ -16602,7 +16574,7 @@
     <row r="27" ht="15.75" customHeight="1" s="34" customFormat="1">
       <c r="A27" s="58"/>
       <c r="B27" s="59" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C27" s="59"/>
       <c r="D27" s="59"/>
@@ -16620,10 +16592,10 @@
       <c r="P27" s="59"/>
       <c r="Q27" s="59"/>
       <c r="R27" s="59" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="S27" s="59" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="T27" s="59"/>
       <c r="U27" s="59"/>
@@ -16646,11 +16618,9 @@
     </row>
     <row r="28" ht="26.45" customHeight="1" s="34" customFormat="1">
       <c r="A28" s="58"/>
-      <c r="B28" s="61" t="s">
-        <v>41</v>
-      </c>
+      <c r="B28" s="61"/>
       <c r="C28" s="147" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D28" s="147"/>
       <c r="E28" s="147"/>
@@ -16663,17 +16633,15 @@
       <c r="L28" s="147"/>
       <c r="M28" s="62"/>
       <c r="N28" s="150" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="O28" s="151"/>
       <c r="P28" s="151"/>
       <c r="Q28" s="152"/>
       <c r="R28" s="59"/>
-      <c r="S28" s="61" t="s">
-        <v>41</v>
-      </c>
+      <c r="S28" s="61"/>
       <c r="T28" s="147" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="U28" s="147"/>
       <c r="V28" s="147"/>
@@ -16686,7 +16654,7 @@
       <c r="AC28" s="62"/>
       <c r="AD28" s="62"/>
       <c r="AE28" s="154" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AF28" s="155"/>
       <c r="AG28" s="155"/>
@@ -16881,7 +16849,7 @@
     <row r="34" ht="16.5" customHeight="1" s="34" customFormat="1">
       <c r="A34" s="58"/>
       <c r="B34" s="58" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C34" s="59"/>
       <c r="D34" s="59"/>
@@ -16899,10 +16867,10 @@
       <c r="P34" s="59"/>
       <c r="Q34" s="59"/>
       <c r="R34" s="59" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="S34" s="59" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="T34" s="59"/>
       <c r="U34" s="59"/>
@@ -16923,11 +16891,9 @@
     </row>
     <row r="35" ht="23.25" customHeight="1" s="34" customFormat="1">
       <c r="A35" s="58"/>
-      <c r="B35" s="61" t="s">
-        <v>41</v>
-      </c>
+      <c r="B35" s="61"/>
       <c r="C35" s="147" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D35" s="148"/>
       <c r="E35" s="148"/>
@@ -16940,7 +16906,7 @@
       <c r="L35" s="148"/>
       <c r="M35" s="149"/>
       <c r="N35" s="150" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="O35" s="151"/>
       <c r="P35" s="151"/>
@@ -16948,7 +16914,7 @@
       <c r="R35" s="59"/>
       <c r="S35" s="61"/>
       <c r="T35" s="153" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="U35" s="153"/>
       <c r="V35" s="153"/>
@@ -16961,7 +16927,7 @@
       <c r="AC35" s="62"/>
       <c r="AD35" s="62"/>
       <c r="AE35" s="154" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AF35" s="155"/>
       <c r="AG35" s="155"/>
@@ -17155,7 +17121,7 @@
     </row>
     <row r="41" ht="16.5" customHeight="1" s="34" customFormat="1">
       <c r="A41" s="58" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B41" s="59"/>
       <c r="C41" s="59"/>
@@ -17175,7 +17141,7 @@
       <c r="Q41" s="59"/>
       <c r="R41" s="59"/>
       <c r="S41" s="67" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="T41" s="67"/>
       <c r="U41" s="67"/>
@@ -17197,7 +17163,7 @@
     <row r="42" ht="16.5" customHeight="1" s="34" customFormat="1">
       <c r="A42" s="58"/>
       <c r="B42" s="68" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C42" s="62"/>
       <c r="D42" s="62"/>
@@ -17216,7 +17182,7 @@
       <c r="Q42" s="69"/>
       <c r="R42" s="62"/>
       <c r="S42" s="70" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="T42" s="62"/>
       <c r="U42" s="62"/>
@@ -17239,7 +17205,7 @@
       <c r="A43" s="58"/>
       <c r="B43" s="71"/>
       <c r="C43" s="72" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D43" s="59"/>
       <c r="E43" s="59"/>
@@ -17247,7 +17213,7 @@
       <c r="G43" s="59"/>
       <c r="H43" s="73"/>
       <c r="I43" s="72" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J43" s="59"/>
       <c r="K43" s="59"/>
@@ -17259,17 +17225,17 @@
       <c r="Q43" s="109"/>
       <c r="R43" s="59"/>
       <c r="S43" s="74" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="T43" s="59" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="U43" s="59"/>
       <c r="V43" s="59" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="W43" s="59" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="X43" s="59"/>
       <c r="Y43" s="59"/>
@@ -17288,7 +17254,7 @@
       <c r="A44" s="96"/>
       <c r="B44" s="97"/>
       <c r="C44" s="72" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D44" s="59"/>
       <c r="E44" s="59"/>
@@ -17301,14 +17267,14 @@
       <c r="L44" s="59"/>
       <c r="M44" s="59"/>
       <c r="N44" s="143" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="O44" s="144"/>
       <c r="P44" s="144"/>
       <c r="Q44" s="145"/>
       <c r="R44" s="59"/>
       <c r="S44" s="74" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="T44" s="59"/>
       <c r="U44" s="59"/>
@@ -17322,7 +17288,7 @@
       <c r="AC44" s="59"/>
       <c r="AD44" s="59"/>
       <c r="AE44" s="143" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AF44" s="144"/>
       <c r="AG44" s="144"/>
@@ -17350,7 +17316,7 @@
       <c r="Q45" s="114"/>
       <c r="R45" s="59"/>
       <c r="S45" s="74" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="T45" s="59"/>
       <c r="U45" s="59"/>
@@ -17522,7 +17488,7 @@
     </row>
     <row r="50" ht="16.5" customHeight="1" s="34" customFormat="1">
       <c r="A50" s="98" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B50" s="59"/>
       <c r="C50" s="99"/>
@@ -17542,7 +17508,7 @@
       <c r="Q50" s="99"/>
       <c r="R50" s="99"/>
       <c r="S50" s="159" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="T50" s="159"/>
       <c r="U50" s="159"/>
@@ -17566,7 +17532,7 @@
     <row r="51" ht="16.5" customHeight="1" s="34" customFormat="1">
       <c r="A51" s="58"/>
       <c r="B51" s="68" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C51" s="62"/>
       <c r="D51" s="62"/>
@@ -17585,7 +17551,7 @@
       <c r="Q51" s="69"/>
       <c r="R51" s="62"/>
       <c r="S51" s="74" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="T51" s="59"/>
       <c r="U51" s="59"/>
@@ -17608,7 +17574,7 @@
       <c r="A52" s="58"/>
       <c r="B52" s="71"/>
       <c r="C52" s="80" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D52" s="59"/>
       <c r="E52" s="59"/>
@@ -17616,7 +17582,7 @@
       <c r="G52" s="59"/>
       <c r="H52" s="73"/>
       <c r="I52" s="80" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J52" s="59"/>
       <c r="K52" s="59"/>
@@ -17628,13 +17594,13 @@
       <c r="Q52" s="109"/>
       <c r="R52" s="59"/>
       <c r="S52" s="81" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="T52" s="75"/>
       <c r="U52" s="75"/>
       <c r="V52" s="82"/>
       <c r="W52" s="83" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="X52" s="75"/>
       <c r="Y52" s="75"/>
@@ -17662,7 +17628,7 @@
     <row r="53" ht="16.5" customHeight="1" s="34" customFormat="1">
       <c r="A53" s="58"/>
       <c r="B53" s="64" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="59"/>
@@ -17676,20 +17642,20 @@
       <c r="L53" s="59"/>
       <c r="M53" s="59"/>
       <c r="N53" s="143" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="O53" s="144"/>
       <c r="P53" s="144"/>
       <c r="Q53" s="145"/>
       <c r="R53" s="59"/>
       <c r="S53" s="81" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="T53" s="75"/>
       <c r="U53" s="75"/>
       <c r="V53" s="82"/>
       <c r="W53" s="81" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="X53" s="75"/>
       <c r="Y53" s="85"/>
@@ -17699,7 +17665,7 @@
       <c r="AC53" s="75"/>
       <c r="AD53" s="75"/>
       <c r="AE53" s="143" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AF53" s="144"/>
       <c r="AG53" s="144"/>
@@ -17719,7 +17685,7 @@
     <row r="54" ht="16.5" customHeight="1" s="34" customFormat="1">
       <c r="A54" s="58"/>
       <c r="B54" s="64" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="59"/>
@@ -17738,13 +17704,13 @@
       <c r="Q54" s="114"/>
       <c r="R54" s="59"/>
       <c r="S54" s="86" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="T54" s="87"/>
       <c r="U54" s="87"/>
       <c r="V54" s="88"/>
       <c r="W54" s="86" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="X54" s="87"/>
       <c r="Y54" s="89"/>
@@ -17773,7 +17739,7 @@
     <row r="55" ht="16.5" customHeight="1" s="34" customFormat="1">
       <c r="A55" s="58"/>
       <c r="B55" s="64" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="59"/>
@@ -17792,13 +17758,13 @@
       <c r="Q55" s="114"/>
       <c r="R55" s="59"/>
       <c r="S55" s="86" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="T55" s="87"/>
       <c r="U55" s="87"/>
       <c r="V55" s="88"/>
       <c r="W55" s="86" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="X55" s="87"/>
       <c r="Y55" s="90"/>
@@ -17826,7 +17792,7 @@
     <row r="56" ht="16.5" customHeight="1" s="34" customFormat="1">
       <c r="A56" s="58"/>
       <c r="B56" s="64" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="59"/>
@@ -17845,13 +17811,13 @@
       <c r="Q56" s="114"/>
       <c r="R56" s="59"/>
       <c r="S56" s="91" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="T56" s="87"/>
       <c r="U56" s="87"/>
       <c r="V56" s="88"/>
       <c r="W56" s="91" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="X56" s="87"/>
       <c r="Y56" s="87"/>
@@ -18019,7 +17985,7 @@
     </row>
     <row r="60" ht="16.5" customHeight="1" s="34" customFormat="1">
       <c r="A60" s="124" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B60" s="125"/>
       <c r="C60" s="125"/>
@@ -18051,7 +18017,7 @@
       <c r="AC60" s="125"/>
       <c r="AD60" s="126"/>
       <c r="AE60" s="130" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AF60" s="131"/>
       <c r="AG60" s="131"/>
@@ -18305,7 +18271,7 @@
     </row>
     <row r="66" ht="23.45" customHeight="1" s="34" customFormat="1">
       <c r="A66" s="110" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B66" s="110"/>
       <c r="C66" s="110"/>
@@ -18449,7 +18415,7 @@
     </row>
     <row r="72" ht="409.5">
       <c r="S72" s="101" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
